--- a/doc/budsjett presentasjon concept0.xlsx
+++ b/doc/budsjett presentasjon concept0.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan.rune.herheim\Dropbox (Lillebakk)\Lillebakk Team\herheim\Documents\customers\kjeller vindteknikk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan.rune.herheim\Dropbox (Lillebakk)\Lillebakk Team\herheim\Documents\GitHub\LE_NB_IOT_CONTROLLER\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Concept1</t>
   </si>
@@ -74,22 +74,10 @@
     <t>Utviklingskost</t>
   </si>
   <si>
-    <t>Initielt estimat 210 timer (255k). Det totale antall timer var initielt forespeilet til 493 (13 uker) for concept0 og 1. Arbeidet med Concept0 er så langt 460 timer. Basert på erfaringer fra Concept0 vil eit anslag for utvikling av concept1 nok være 50% større enn først antatt. =&gt; 315 timer (382k).</t>
-  </si>
-  <si>
-    <t>Total eks mva</t>
-  </si>
-  <si>
     <t>Timepris eks mva</t>
   </si>
   <si>
-    <t>Enhetspris eks mva</t>
-  </si>
-  <si>
     <t>Uforutsett mer-arbeid kommunikasjonsenhet</t>
-  </si>
-  <si>
-    <t>Skalerer med antall produserte enheter. Inkludert lastcelle. 10k + 20k for lastcelle. Lastcelle med integrert elektronikk</t>
   </si>
   <si>
     <t>Skalerer med antall produserte enheter. Inkluderer PCB, komponenter og batteri.</t>
@@ -100,34 +88,46 @@
 390 timer.</t>
   </si>
   <si>
-    <t>Enhet innkjøpsspris eks mva</t>
-  </si>
-  <si>
-    <t>Total eks mva Kjeller</t>
-  </si>
-  <si>
-    <t>Enhet innkjøpsspris eks mva Kjeller</t>
-  </si>
-  <si>
-    <t>Enhetspris eks mva Kjeller</t>
-  </si>
-  <si>
-    <t>Enhetspris inkludert Concept0 og 1 eks mva Kjeller</t>
-  </si>
-  <si>
-    <t>Enhetspris inkludert Concept0 og 1 eks mva + 40% Kjeller</t>
-  </si>
-  <si>
-    <t>Dekning NRF</t>
-  </si>
-  <si>
     <t>Engineering kommunikasjonsenhet</t>
+  </si>
+  <si>
+    <t>Kostpris per enhet eks mva</t>
+  </si>
+  <si>
+    <t>Total engineering-kost eks mva</t>
+  </si>
+  <si>
+    <t>Reell total engineering-kost eks mva</t>
+  </si>
+  <si>
+    <t>Antall enheter for ROI</t>
+  </si>
+  <si>
+    <t>Dekningsbidrag</t>
+  </si>
+  <si>
+    <t>Estimert dekning NRF, IN, skattefunn, etc.</t>
+  </si>
+  <si>
+    <t>Enhetspris eks mva LE</t>
+  </si>
+  <si>
+    <t>Enhetspris eks mva KV</t>
+  </si>
+  <si>
+    <t>Skalerer med antall produserte enheter. Inkludert lastcelle. 10k + 20k for lastcelle. Lastcelle med integrert elektronikk
+KV: har god erfaring med lastcelle til ca 8k. Bruker denne I estimatet.</t>
+  </si>
+  <si>
+    <t>Initielt estimat 210 timer (255k). Det totale antall timer var initielt forespeilet til 493 (13 uker) for concept0 og 1. Arbeidet med Concept0 er så langt 460 timer. Basert på erfaringer fra Concept0 vil eit anslag for utvikling av concept1 nok være 50% større enn først antatt. =&gt; 315 timer (382k). Se project plan for detaljer.
+KV: kan ikke overstige initiell avtale på 210 timer.
+LE: Forslag til kutt som ender på 255 timer.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -214,24 +214,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -255,12 +244,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -576,28 +559,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1328125" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.3984375" customWidth="1"/>
-    <col min="7" max="7" width="40.265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
@@ -612,7 +595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="10" t="s">
         <v>15</v>
@@ -642,7 +625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -667,10 +650,10 @@
         <v>2000</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -686,7 +669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -696,13 +679,13 @@
         <v>70000</v>
       </c>
       <c r="I6" s="4">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -715,7 +698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -729,9 +712,9 @@
         <v>Per produktserie.</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B9" s="13">
         <f>283*B13</f>
@@ -741,23 +724,23 @@
         <v>9</v>
       </c>
       <c r="E9" s="11">
-        <f>315*B13</f>
-        <v>305550</v>
+        <f>255*B13</f>
+        <v>247350</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H9" s="11">
         <f>390*B13</f>
         <v>378300</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" s="14">
         <f>72*B13</f>
@@ -766,12 +749,12 @@
       <c r="E10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="E11" s="11"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -787,9 +770,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="13">
         <v>970</v>
@@ -797,50 +780,49 @@
       <c r="E13" s="11"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
       <c r="E14" s="11"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="1">
+        <v>21</v>
+      </c>
+      <c r="I16" s="4">
         <f>I4+I5+I6</f>
-        <v>34500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17">
-        <f>I16</f>
-        <v>34500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="18">
-        <f>I17*1.4</f>
-        <v>48300</v>
-      </c>
-      <c r="J18" s="17"/>
-    </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="3">
+        <f>I16*I17</f>
+        <v>31499.999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="3">
+        <f>I18*I17</f>
+        <v>44099.999999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <f>(C4+B9)*C12</f>
@@ -848,84 +830,50 @@
       </c>
       <c r="E20">
         <f>(F4+E9)*F12</f>
-        <v>306550</v>
+        <v>248350</v>
       </c>
       <c r="H20">
         <f>(H4+H5+H6+H7+H8+H9)</f>
         <v>698300</v>
       </c>
-      <c r="I20" s="1">
-        <f>(I4+I5+I6)</f>
-        <v>34500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="2">
-        <f>B20/C12</f>
-        <v>275510</v>
-      </c>
-      <c r="E21">
-        <f>E20/F12</f>
-        <v>306550</v>
-      </c>
-      <c r="H21">
-        <f>(H20/H12)+I20</f>
-        <v>48466</v>
-      </c>
-      <c r="I21">
-        <f>I20</f>
-        <v>34500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22">
-        <f>H21*1.4</f>
-        <v>67852.399999999994</v>
-      </c>
-      <c r="I22" s="3">
-        <f>I21*1.4</f>
-        <v>48300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23">
+        <f>(B20+E20+H20)*(1-B22)</f>
+        <v>733296</v>
+      </c>
       <c r="I23"/>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.5</v>
+        <v>24</v>
+      </c>
+      <c r="H24">
+        <f>H23/(I19-I18)</f>
+        <v>58.198095238095256</v>
       </c>
       <c r="I24"/>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25">
-        <f>((B21+E21+H20)/H12)+I20</f>
-        <v>60107.199999999997</v>
-      </c>
-      <c r="I25"/>
-    </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26">
-        <f>H25*1.4</f>
-        <v>84150.079999999987</v>
-      </c>
-      <c r="I26"/>
-    </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="C/EbxsqGJqJUcyXvpSjD4v83efBfU2x8WIwXrP+nVFR/teaOHPCvaw6trZIjAQYEFeu9FRxHDrAwbB0eove9xg==" saltValue="es0WyhhuJjKhmX2IdJD7cA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <protectedRanges>
+    <protectedRange sqref="A1:J20" name="Range1"/>
+  </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
